--- a/data/mau_data.xlsx
+++ b/data/mau_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,7 +520,7 @@
         <v>45443</v>
       </c>
       <c r="B6" t="n">
-        <v>737722</v>
+        <v>757722</v>
       </c>
       <c r="C6" t="n">
         <v>140186</v>
@@ -547,225 +547,393 @@
       <c r="A8" s="2" t="n">
         <v>45445</v>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>62042</v>
+      </c>
+      <c r="C8" t="n">
+        <v>13471</v>
+      </c>
+      <c r="D8" t="n">
+        <v>75514</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
         <v>45446</v>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>85152</v>
+      </c>
+      <c r="C9" t="n">
+        <v>18157</v>
+      </c>
+      <c r="D9" t="n">
+        <v>103310</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
         <v>45447</v>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>108262</v>
+      </c>
+      <c r="C10" t="n">
+        <v>22843</v>
+      </c>
+      <c r="D10" t="n">
+        <v>131106</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
         <v>45448</v>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>131372</v>
+      </c>
+      <c r="C11" t="n">
+        <v>27529</v>
+      </c>
+      <c r="D11" t="n">
+        <v>158901</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
         <v>45449</v>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>154481</v>
+      </c>
+      <c r="C12" t="n">
+        <v>32215</v>
+      </c>
+      <c r="D12" t="n">
+        <v>186697</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
         <v>45450</v>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>177591</v>
+      </c>
+      <c r="C13" t="n">
+        <v>36901</v>
+      </c>
+      <c r="D13" t="n">
+        <v>214493</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
         <v>45451</v>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>200701</v>
+      </c>
+      <c r="C14" t="n">
+        <v>41587</v>
+      </c>
+      <c r="D14" t="n">
+        <v>242289</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
         <v>45452</v>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>223811</v>
+      </c>
+      <c r="C15" t="n">
+        <v>46273</v>
+      </c>
+      <c r="D15" t="n">
+        <v>270084</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
         <v>45453</v>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>246920</v>
+      </c>
+      <c r="C16" t="n">
+        <v>50959</v>
+      </c>
+      <c r="D16" t="n">
+        <v>297880</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
         <v>45454</v>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>270030</v>
+      </c>
+      <c r="C17" t="n">
+        <v>55645</v>
+      </c>
+      <c r="D17" t="n">
+        <v>325676</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
         <v>45455</v>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>293140</v>
+      </c>
+      <c r="C18" t="n">
+        <v>60331</v>
+      </c>
+      <c r="D18" t="n">
+        <v>353471</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
         <v>45456</v>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>316250</v>
+      </c>
+      <c r="C19" t="n">
+        <v>65017</v>
+      </c>
+      <c r="D19" t="n">
+        <v>381267</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
         <v>45457</v>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>339359</v>
+      </c>
+      <c r="C20" t="n">
+        <v>69703</v>
+      </c>
+      <c r="D20" t="n">
+        <v>409063</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
         <v>45458</v>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>362469</v>
+      </c>
+      <c r="C21" t="n">
+        <v>74389</v>
+      </c>
+      <c r="D21" t="n">
+        <v>436859</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
         <v>45459</v>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>385579</v>
+      </c>
+      <c r="C22" t="n">
+        <v>79075</v>
+      </c>
+      <c r="D22" t="n">
+        <v>464654</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
         <v>45460</v>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>408689</v>
+      </c>
+      <c r="C23" t="n">
+        <v>83761</v>
+      </c>
+      <c r="D23" t="n">
+        <v>492450</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
         <v>45461</v>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>431798</v>
+      </c>
+      <c r="C24" t="n">
+        <v>88447</v>
+      </c>
+      <c r="D24" t="n">
+        <v>520246</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
         <v>45462</v>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>454908</v>
+      </c>
+      <c r="C25" t="n">
+        <v>93133</v>
+      </c>
+      <c r="D25" t="n">
+        <v>548042</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
         <v>45463</v>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>478018</v>
+      </c>
+      <c r="C26" t="n">
+        <v>97819</v>
+      </c>
+      <c r="D26" t="n">
+        <v>575837</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
         <v>45464</v>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
+      <c r="B27" t="n">
+        <v>501128</v>
+      </c>
+      <c r="C27" t="n">
+        <v>102505</v>
+      </c>
+      <c r="D27" t="n">
+        <v>603633</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
         <v>45465</v>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+      <c r="B28" t="n">
+        <v>524237</v>
+      </c>
+      <c r="C28" t="n">
+        <v>107191</v>
+      </c>
+      <c r="D28" t="n">
+        <v>631429</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
         <v>45466</v>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>547347</v>
+      </c>
+      <c r="C29" t="n">
+        <v>111877</v>
+      </c>
+      <c r="D29" t="n">
+        <v>659224</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
         <v>45467</v>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>570457</v>
+      </c>
+      <c r="C30" t="n">
+        <v>116563</v>
+      </c>
+      <c r="D30" t="n">
+        <v>687020</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
         <v>45468</v>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>593567</v>
+      </c>
+      <c r="C31" t="n">
+        <v>121249</v>
+      </c>
+      <c r="D31" t="n">
+        <v>714816</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
         <v>45469</v>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
+      <c r="B32" t="n">
+        <v>616676</v>
+      </c>
+      <c r="C32" t="n">
+        <v>125935</v>
+      </c>
+      <c r="D32" t="n">
+        <v>742612</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
         <v>45470</v>
       </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
+      <c r="B33" t="n">
+        <v>639786</v>
+      </c>
+      <c r="C33" t="n">
+        <v>130621</v>
+      </c>
+      <c r="D33" t="n">
+        <v>770407</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
         <v>45471</v>
       </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
+      <c r="B34" t="n">
+        <v>662896</v>
+      </c>
+      <c r="C34" t="n">
+        <v>135307</v>
+      </c>
+      <c r="D34" t="n">
+        <v>798203</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
         <v>45472</v>
       </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
+      <c r="B35" t="n">
+        <v>686006</v>
+      </c>
+      <c r="C35" t="n">
+        <v>139993</v>
+      </c>
+      <c r="D35" t="n">
+        <v>825999</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -783,16 +951,268 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45473</v>
+        <v>45474</v>
       </c>
       <c r="B37" t="n">
-        <v>709116</v>
+        <v>68632</v>
       </c>
       <c r="C37" t="n">
-        <v>144679</v>
+        <v>14260</v>
       </c>
       <c r="D37" t="n">
-        <v>853795</v>
+        <v>82892</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B38" t="n">
+        <v>109521</v>
+      </c>
+      <c r="C38" t="n">
+        <v>23817</v>
+      </c>
+      <c r="D38" t="n">
+        <v>133332</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B39" t="n">
+        <v>144953</v>
+      </c>
+      <c r="C39" t="n">
+        <v>32381</v>
+      </c>
+      <c r="D39" t="n">
+        <v>177334</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B40" t="n">
+        <v>181490</v>
+      </c>
+      <c r="C40" t="n">
+        <v>41414</v>
+      </c>
+      <c r="D40" t="n">
+        <v>222904</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B41" t="n">
+        <v>214173</v>
+      </c>
+      <c r="C41" t="n">
+        <v>49028</v>
+      </c>
+      <c r="D41" t="n">
+        <v>263201</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45479</v>
+      </c>
+      <c r="B42" t="n">
+        <v>240834</v>
+      </c>
+      <c r="C42" t="n">
+        <v>54072</v>
+      </c>
+      <c r="D42" t="n">
+        <v>287621</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45480</v>
+      </c>
+      <c r="B43" t="n">
+        <v>248994</v>
+      </c>
+      <c r="C43" t="n">
+        <v>58624</v>
+      </c>
+      <c r="D43" t="n">
+        <v>307618</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B44" t="n">
+        <v>279994</v>
+      </c>
+      <c r="C44" t="n">
+        <v>65118</v>
+      </c>
+      <c r="D44" t="n">
+        <v>345112</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B45" t="n">
+        <v>308828</v>
+      </c>
+      <c r="C45" t="n">
+        <v>71396</v>
+      </c>
+      <c r="D45" t="n">
+        <v>380224</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B46" t="n">
+        <v>341395</v>
+      </c>
+      <c r="C46" t="n">
+        <v>78364</v>
+      </c>
+      <c r="D46" t="n">
+        <v>419759</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B47" t="n">
+        <v>369304</v>
+      </c>
+      <c r="C47" t="n">
+        <v>84074</v>
+      </c>
+      <c r="D47" t="n">
+        <v>453378</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B48" t="n">
+        <v>394307</v>
+      </c>
+      <c r="C48" t="n">
+        <v>89386</v>
+      </c>
+      <c r="D48" t="n">
+        <v>483693</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45486</v>
+      </c>
+      <c r="B49" t="n">
+        <v>409646</v>
+      </c>
+      <c r="C49" t="n">
+        <v>93212</v>
+      </c>
+      <c r="D49" t="n">
+        <v>502858</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45487</v>
+      </c>
+      <c r="B50" t="n">
+        <v>422479</v>
+      </c>
+      <c r="C50" t="n">
+        <v>96539</v>
+      </c>
+      <c r="D50" t="n">
+        <v>519017</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B51" t="n">
+        <v>451211</v>
+      </c>
+      <c r="C51" t="n">
+        <v>102134</v>
+      </c>
+      <c r="D51" t="n">
+        <v>553345</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B52" t="n">
+        <v>475342</v>
+      </c>
+      <c r="C52" t="n">
+        <v>106976</v>
+      </c>
+      <c r="D52" t="n">
+        <v>582318</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45490</v>
+      </c>
+      <c r="B53" t="n">
+        <v>498096</v>
+      </c>
+      <c r="C53" t="n">
+        <v>111525</v>
+      </c>
+      <c r="D53" t="n">
+        <v>609621</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B54" t="n">
+        <v>521012</v>
+      </c>
+      <c r="C54" t="n">
+        <v>115900</v>
+      </c>
+      <c r="D54" t="n">
+        <v>609621</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B55" t="n">
+        <v>541012</v>
+      </c>
+      <c r="C55" t="n">
+        <v>120100</v>
+      </c>
+      <c r="D55" t="n">
+        <v>609621</v>
       </c>
     </row>
   </sheetData>
